--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H2">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I2">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J2">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.674454</v>
+        <v>0.4126116666666667</v>
       </c>
       <c r="N2">
-        <v>5.023362000000001</v>
+        <v>1.237835</v>
       </c>
       <c r="O2">
-        <v>0.04835027570905603</v>
+        <v>0.02619655320417558</v>
       </c>
       <c r="P2">
-        <v>0.06371938255687164</v>
+        <v>0.0272642491595578</v>
       </c>
       <c r="Q2">
-        <v>3.696277389359334</v>
+        <v>0.7909855049194444</v>
       </c>
       <c r="R2">
-        <v>33.26649650423401</v>
+        <v>7.118869544274999</v>
       </c>
       <c r="S2">
-        <v>0.0002358844482005298</v>
+        <v>0.0001067719843428577</v>
       </c>
       <c r="T2">
-        <v>0.0003138268279959025</v>
+        <v>0.0001135251013866069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H3">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I3">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J3">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.954404</v>
       </c>
       <c r="O3">
-        <v>0.009186217624337229</v>
+        <v>0.02019824545620215</v>
       </c>
       <c r="P3">
-        <v>0.01210624151510652</v>
+        <v>0.02102146768743702</v>
       </c>
       <c r="Q3">
-        <v>0.7022671122475557</v>
+        <v>0.6098710489177778</v>
       </c>
       <c r="R3">
-        <v>6.320404010228001</v>
+        <v>5.48883944026</v>
       </c>
       <c r="S3">
-        <v>4.481641197675549E-05</v>
+        <v>8.232406495595998E-05</v>
       </c>
       <c r="T3">
-        <v>5.962492449212327E-05</v>
+        <v>8.753089940402657E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H4">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I4">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J4">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.279328666666667</v>
+        <v>5.626650333333333</v>
       </c>
       <c r="N4">
-        <v>15.837986</v>
+        <v>16.879951</v>
       </c>
       <c r="O4">
-        <v>0.1524419282894941</v>
+        <v>0.357233827170323</v>
       </c>
       <c r="P4">
-        <v>0.2008986588791286</v>
+        <v>0.371793647671238</v>
       </c>
       <c r="Q4">
-        <v>11.65386638366689</v>
+        <v>10.78641059975722</v>
       </c>
       <c r="R4">
-        <v>104.884797453002</v>
+        <v>97.07769539781498</v>
       </c>
       <c r="S4">
-        <v>0.0007437119977054641</v>
+        <v>0.001456014625438935</v>
       </c>
       <c r="T4">
-        <v>0.0009894538574411942</v>
+        <v>0.001548104673624479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H5">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I5">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J5">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.059511</v>
+        <v>1.85043</v>
       </c>
       <c r="N5">
-        <v>50.119022</v>
+        <v>3.70086</v>
       </c>
       <c r="O5">
-        <v>0.7235996127598145</v>
+        <v>0.1174830763686662</v>
       </c>
       <c r="P5">
-        <v>0.6357401947528897</v>
+        <v>0.08151423181978301</v>
       </c>
       <c r="Q5">
-        <v>55.31767602914235</v>
+        <v>3.547314402650001</v>
       </c>
       <c r="R5">
-        <v>331.906056174854</v>
+        <v>21.2838864159</v>
       </c>
       <c r="S5">
-        <v>0.003530194872125544</v>
+        <v>0.0004788378491177438</v>
       </c>
       <c r="T5">
-        <v>0.003131108945864712</v>
+        <v>0.0003394155979735896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.207452333333334</v>
+        <v>1.917021666666667</v>
       </c>
       <c r="H6">
-        <v>6.622357000000001</v>
+        <v>5.751065</v>
       </c>
       <c r="I6">
-        <v>0.004878657768570873</v>
+        <v>0.004075802778734984</v>
       </c>
       <c r="J6">
-        <v>0.004925139186899713</v>
+        <v>0.004163881452308742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.300308</v>
+        <v>7.542782333333332</v>
       </c>
       <c r="N6">
-        <v>6.900924</v>
+        <v>22.628347</v>
       </c>
       <c r="O6">
-        <v>0.06642196561729809</v>
+        <v>0.4788882978006332</v>
       </c>
       <c r="P6">
-        <v>0.0875355222960035</v>
+        <v>0.4984064036619842</v>
       </c>
       <c r="Q6">
-        <v>5.077820261985334</v>
+        <v>14.45967715995055</v>
       </c>
       <c r="R6">
-        <v>45.70038235786801</v>
+        <v>130.137094439555</v>
       </c>
       <c r="S6">
-        <v>0.0003240500385625787</v>
+        <v>0.001951854254879487</v>
       </c>
       <c r="T6">
-        <v>0.0004311246311057804</v>
+        <v>0.00207530517992004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>1303.417145</v>
       </c>
       <c r="I7">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J7">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.674454</v>
+        <v>0.4126116666666667</v>
       </c>
       <c r="N7">
-        <v>5.023362000000001</v>
+        <v>1.237835</v>
       </c>
       <c r="O7">
-        <v>0.04835027570905603</v>
+        <v>0.02619655320417558</v>
       </c>
       <c r="P7">
-        <v>0.06371938255687164</v>
+        <v>0.0272642491595578</v>
       </c>
       <c r="Q7">
-        <v>727.5040173712766</v>
+        <v>179.2683735201194</v>
       </c>
       <c r="R7">
-        <v>6547.53615634149</v>
+        <v>1613.415361681075</v>
       </c>
       <c r="S7">
-        <v>0.04642694950203301</v>
+        <v>0.0241987240620915</v>
       </c>
       <c r="T7">
-        <v>0.06176762566119966</v>
+        <v>0.02572924554585399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1303.417145</v>
       </c>
       <c r="I8">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J8">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.954404</v>
       </c>
       <c r="O8">
-        <v>0.009186217624337229</v>
+        <v>0.02019824545620215</v>
       </c>
       <c r="P8">
-        <v>0.01210624151510652</v>
+        <v>0.02102146768743702</v>
       </c>
       <c r="Q8">
         <v>138.2207263173978</v>
@@ -948,10 +948,10 @@
         <v>1243.98653685658</v>
       </c>
       <c r="S8">
-        <v>0.008820798961440229</v>
+        <v>0.01865786557962602</v>
       </c>
       <c r="T8">
-        <v>0.01173542121821035</v>
+        <v>0.01983793871230433</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1303.417145</v>
       </c>
       <c r="I9">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J9">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.279328666666667</v>
+        <v>5.626650333333333</v>
       </c>
       <c r="N9">
-        <v>15.837986</v>
+        <v>16.879951</v>
       </c>
       <c r="O9">
-        <v>0.1524419282894941</v>
+        <v>0.357233827170323</v>
       </c>
       <c r="P9">
-        <v>0.2008986588791286</v>
+        <v>0.371793647671238</v>
       </c>
       <c r="Q9">
-        <v>2293.722499407775</v>
+        <v>2444.624171128877</v>
       </c>
       <c r="R9">
-        <v>20643.50249466997</v>
+        <v>22001.61754015989</v>
       </c>
       <c r="S9">
-        <v>0.1463779389651604</v>
+        <v>0.3299900846482975</v>
       </c>
       <c r="T9">
-        <v>0.1947450314103027</v>
+        <v>0.3508613054898137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1303.417145</v>
       </c>
       <c r="I10">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J10">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.059511</v>
+        <v>1.85043</v>
       </c>
       <c r="N10">
-        <v>50.119022</v>
+        <v>3.70086</v>
       </c>
       <c r="O10">
-        <v>0.7235996127598145</v>
+        <v>0.1174830763686662</v>
       </c>
       <c r="P10">
-        <v>0.6357401947528897</v>
+        <v>0.08151423181978301</v>
       </c>
       <c r="Q10">
-        <v>10887.66542757203</v>
+        <v>803.9607292074501</v>
       </c>
       <c r="R10">
-        <v>65325.99256543219</v>
+        <v>4823.7643752447</v>
       </c>
       <c r="S10">
-        <v>0.6948155349401303</v>
+        <v>0.1085234582142595</v>
       </c>
       <c r="T10">
-        <v>0.6162671512428191</v>
+        <v>0.07692490167981129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1303.417145</v>
       </c>
       <c r="I11">
-        <v>0.9602209878058093</v>
+        <v>0.9237369463641636</v>
       </c>
       <c r="J11">
-        <v>0.9693694945344148</v>
+        <v>0.9436990322117234</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.300308</v>
+        <v>7.542782333333332</v>
       </c>
       <c r="N11">
-        <v>6.900924</v>
+        <v>22.628347</v>
       </c>
       <c r="O11">
-        <v>0.06642196561729809</v>
+        <v>0.4788882978006332</v>
       </c>
       <c r="P11">
-        <v>0.0875355222960035</v>
+        <v>0.4984064036619842</v>
       </c>
       <c r="Q11">
-        <v>999.4202953268865</v>
+        <v>3277.13060475659</v>
       </c>
       <c r="R11">
-        <v>8994.78265794198</v>
+        <v>29494.17544280931</v>
       </c>
       <c r="S11">
-        <v>0.06377976543704547</v>
+        <v>0.4423668138598891</v>
       </c>
       <c r="T11">
-        <v>0.08485426500188291</v>
+        <v>0.47034564078394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H12">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I12">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J12">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.674454</v>
+        <v>0.4126116666666667</v>
       </c>
       <c r="N12">
-        <v>5.023362000000001</v>
+        <v>1.237835</v>
       </c>
       <c r="O12">
-        <v>0.04835027570905603</v>
+        <v>0.02619655320417558</v>
       </c>
       <c r="P12">
-        <v>0.06371938255687164</v>
+        <v>0.0272642491595578</v>
       </c>
       <c r="Q12">
-        <v>3.214603393568</v>
+        <v>0.709288807531111</v>
       </c>
       <c r="R12">
-        <v>28.931430542112</v>
+        <v>6.38359926778</v>
       </c>
       <c r="S12">
-        <v>0.0002051455742629662</v>
+        <v>9.574407240242498E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002729310276259237</v>
+        <v>0.0001017996958054945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H13">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I13">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J13">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.954404</v>
       </c>
       <c r="O13">
-        <v>0.009186217624337229</v>
+        <v>0.02019824545620215</v>
       </c>
       <c r="P13">
-        <v>0.01210624151510652</v>
+        <v>0.02102146768743702</v>
       </c>
       <c r="Q13">
-        <v>0.6107523879893334</v>
+        <v>0.5468807030524444</v>
       </c>
       <c r="R13">
-        <v>5.496771491904001</v>
+        <v>4.921926327472</v>
       </c>
       <c r="S13">
-        <v>3.897623875382105E-05</v>
+        <v>7.382124893638006E-05</v>
       </c>
       <c r="T13">
-        <v>5.185500557003298E-05</v>
+        <v>7.849029707153797E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H14">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I14">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J14">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.279328666666667</v>
+        <v>5.626650333333333</v>
       </c>
       <c r="N14">
-        <v>15.837986</v>
+        <v>16.879951</v>
       </c>
       <c r="O14">
-        <v>0.1524419282894941</v>
+        <v>0.357233827170323</v>
       </c>
       <c r="P14">
-        <v>0.2008986588791286</v>
+        <v>0.371793647671238</v>
       </c>
       <c r="Q14">
-        <v>10.13521293963734</v>
+        <v>9.672339460407555</v>
       </c>
       <c r="R14">
-        <v>91.21691645673602</v>
+        <v>87.05105514366799</v>
       </c>
       <c r="S14">
-        <v>0.0006467964548720199</v>
+        <v>0.001305630597529869</v>
       </c>
       <c r="T14">
-        <v>0.0008605148891330134</v>
+        <v>0.001388209153087166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H15">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I15">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J15">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.059511</v>
+        <v>1.85043</v>
       </c>
       <c r="N15">
-        <v>50.119022</v>
+        <v>3.70086</v>
       </c>
       <c r="O15">
-        <v>0.7235996127598145</v>
+        <v>0.1174830763686662</v>
       </c>
       <c r="P15">
-        <v>0.6357401947528897</v>
+        <v>0.08151423181978301</v>
       </c>
       <c r="Q15">
-        <v>48.109048741712</v>
+        <v>3.18093111308</v>
       </c>
       <c r="R15">
-        <v>288.654292450272</v>
+        <v>19.08558667848</v>
       </c>
       <c r="S15">
-        <v>0.003070163632350676</v>
+        <v>0.0004293812274550791</v>
       </c>
       <c r="T15">
-        <v>0.002723083898406341</v>
+        <v>0.0003043591611311059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.919792</v>
+        <v>1.719022666666667</v>
       </c>
       <c r="H16">
-        <v>5.759376</v>
+        <v>5.157068</v>
       </c>
       <c r="I16">
-        <v>0.004242903918426723</v>
+        <v>0.003654834727920005</v>
       </c>
       <c r="J16">
-        <v>0.004283328191109256</v>
+        <v>0.003733816222472697</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.300308</v>
+        <v>7.542782333333332</v>
       </c>
       <c r="N16">
-        <v>6.900924</v>
+        <v>22.628347</v>
       </c>
       <c r="O16">
-        <v>0.06642196561729809</v>
+        <v>0.4788882978006332</v>
       </c>
       <c r="P16">
-        <v>0.0875355222960035</v>
+        <v>0.4984064036619842</v>
       </c>
       <c r="Q16">
-        <v>4.416112895936</v>
+        <v>12.96621380073289</v>
       </c>
       <c r="R16">
-        <v>39.745016063424</v>
+        <v>116.695924206596</v>
       </c>
       <c r="S16">
-        <v>0.0002818220181872391</v>
+        <v>0.001750257581596251</v>
       </c>
       <c r="T16">
-        <v>0.0003749433703739447</v>
+        <v>0.001860957915377392</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H17">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I17">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J17">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.674454</v>
+        <v>0.4126116666666667</v>
       </c>
       <c r="N17">
-        <v>5.023362000000001</v>
+        <v>1.237835</v>
       </c>
       <c r="O17">
-        <v>0.04835027570905603</v>
+        <v>0.02619655320417558</v>
       </c>
       <c r="P17">
-        <v>0.06371938255687164</v>
+        <v>0.0272642491595578</v>
       </c>
       <c r="Q17">
-        <v>21.450939578978</v>
+        <v>12.31541434248333</v>
       </c>
       <c r="R17">
-        <v>128.705637473868</v>
+        <v>73.8924860549</v>
       </c>
       <c r="S17">
-        <v>0.00136892946956212</v>
+        <v>0.001662408753603331</v>
       </c>
       <c r="T17">
-        <v>0.001214173002813018</v>
+        <v>0.001178368548393631</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H18">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I18">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J18">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.954404</v>
       </c>
       <c r="O18">
-        <v>0.009186217624337229</v>
+        <v>0.02019824545620215</v>
       </c>
       <c r="P18">
-        <v>0.01210624151510652</v>
+        <v>0.02102146768743702</v>
       </c>
       <c r="Q18">
-        <v>4.075530001209333</v>
+        <v>9.495514919293335</v>
       </c>
       <c r="R18">
-        <v>24.453180007256</v>
+        <v>56.97308951576</v>
       </c>
       <c r="S18">
-        <v>0.0002600871212283656</v>
+        <v>0.00128176175667519</v>
       </c>
       <c r="T18">
-        <v>0.0002306844640256377</v>
+        <v>0.0009085537701398615</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H19">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I19">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J19">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.279328666666667</v>
+        <v>5.626650333333333</v>
       </c>
       <c r="N19">
-        <v>15.837986</v>
+        <v>16.879951</v>
       </c>
       <c r="O19">
-        <v>0.1524419282894941</v>
+        <v>0.357233827170323</v>
       </c>
       <c r="P19">
-        <v>0.2008986588791286</v>
+        <v>0.371793647671238</v>
       </c>
       <c r="Q19">
-        <v>67.63193270536733</v>
+        <v>167.9412770246567</v>
       </c>
       <c r="R19">
-        <v>405.791596232204</v>
+        <v>1007.64766214794</v>
       </c>
       <c r="S19">
-        <v>0.004316050838843045</v>
+        <v>0.022669724400098</v>
       </c>
       <c r="T19">
-        <v>0.003828124475228051</v>
+        <v>0.01606902645088047</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H20">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I20">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J20">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.059511</v>
+        <v>1.85043</v>
       </c>
       <c r="N20">
-        <v>50.119022</v>
+        <v>3.70086</v>
       </c>
       <c r="O20">
-        <v>0.7235996127598145</v>
+        <v>0.1174830763686662</v>
       </c>
       <c r="P20">
-        <v>0.6357401947528897</v>
+        <v>0.08151423181978301</v>
       </c>
       <c r="Q20">
-        <v>321.030052984277</v>
+        <v>55.23065391210001</v>
       </c>
       <c r="R20">
-        <v>1284.120211937108</v>
+        <v>220.9226156484</v>
       </c>
       <c r="S20">
-        <v>0.02048709794399613</v>
+        <v>0.007455366094665798</v>
       </c>
       <c r="T20">
-        <v>0.01211403108909764</v>
+        <v>0.00352306811974783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.810707</v>
+        <v>29.84747</v>
       </c>
       <c r="H21">
-        <v>25.621414</v>
+        <v>59.69494</v>
       </c>
       <c r="I21">
-        <v>0.02831275415676106</v>
+        <v>0.06345906427637789</v>
       </c>
       <c r="J21">
-        <v>0.01905500263957091</v>
+        <v>0.04322028241076797</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.300308</v>
+        <v>7.542782333333332</v>
       </c>
       <c r="N21">
-        <v>6.900924</v>
+        <v>22.628347</v>
       </c>
       <c r="O21">
-        <v>0.06642196561729809</v>
+        <v>0.4788882978006332</v>
       </c>
       <c r="P21">
-        <v>0.0875355222960035</v>
+        <v>0.4984064036619842</v>
       </c>
       <c r="Q21">
-        <v>29.468571797756</v>
+        <v>225.1329694106967</v>
       </c>
       <c r="R21">
-        <v>176.811430786536</v>
+        <v>1350.79781646418</v>
       </c>
       <c r="S21">
-        <v>0.001880588783131397</v>
+        <v>0.03038980327133558</v>
       </c>
       <c r="T21">
-        <v>0.001667989608406565</v>
+        <v>0.02154126552160618</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H22">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I22">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J22">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.674454</v>
+        <v>0.4126116666666667</v>
       </c>
       <c r="N22">
-        <v>5.023362000000001</v>
+        <v>1.237835</v>
       </c>
       <c r="O22">
-        <v>0.04835027570905603</v>
+        <v>0.02619655320417558</v>
       </c>
       <c r="P22">
-        <v>0.06371938255687164</v>
+        <v>0.0272642491595578</v>
       </c>
       <c r="Q22">
-        <v>1.776441086080667</v>
+        <v>0.9845784977283333</v>
       </c>
       <c r="R22">
-        <v>15.987969774726</v>
+        <v>8.861206479554999</v>
       </c>
       <c r="S22">
-        <v>0.0001133667149974148</v>
+        <v>0.0001329043317354723</v>
       </c>
       <c r="T22">
-        <v>0.0001508260372371352</v>
+        <v>0.0001413102681180808</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H23">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I23">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J23">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.954404</v>
       </c>
       <c r="O23">
-        <v>0.009186217624337229</v>
+        <v>0.02019824545620215</v>
       </c>
       <c r="P23">
-        <v>0.01210624151510652</v>
+        <v>0.02102146768743702</v>
       </c>
       <c r="Q23">
-        <v>0.3375115068991112</v>
+        <v>0.7591364410813333</v>
       </c>
       <c r="R23">
-        <v>3.037603562092</v>
+        <v>6.832227969732</v>
       </c>
       <c r="S23">
-        <v>2.153889093805954E-05</v>
+        <v>0.0001024728060086051</v>
       </c>
       <c r="T23">
-        <v>2.865590280837231E-05</v>
+        <v>0.000108954008517265</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H24">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I24">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J24">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.279328666666667</v>
+        <v>5.626650333333333</v>
       </c>
       <c r="N24">
-        <v>15.837986</v>
+        <v>16.879951</v>
       </c>
       <c r="O24">
-        <v>0.1524419282894941</v>
+        <v>0.357233827170323</v>
       </c>
       <c r="P24">
-        <v>0.2008986588791286</v>
+        <v>0.371793647671238</v>
       </c>
       <c r="Q24">
-        <v>5.600880257319779</v>
+        <v>13.42637491855367</v>
       </c>
       <c r="R24">
-        <v>50.407922315878</v>
+        <v>120.837374266983</v>
       </c>
       <c r="S24">
-        <v>0.0003574300329132253</v>
+        <v>0.00181237289895868</v>
       </c>
       <c r="T24">
-        <v>0.0004755342470236518</v>
+        <v>0.001927001903832147</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H25">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I25">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J25">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.059511</v>
+        <v>1.85043</v>
       </c>
       <c r="N25">
-        <v>50.119022</v>
+        <v>3.70086</v>
       </c>
       <c r="O25">
-        <v>0.7235996127598145</v>
+        <v>0.1174830763686662</v>
       </c>
       <c r="P25">
-        <v>0.6357401947528897</v>
+        <v>0.08151423181978301</v>
       </c>
       <c r="Q25">
-        <v>26.58582734281767</v>
+        <v>4.41551642073</v>
       </c>
       <c r="R25">
-        <v>159.514964056906</v>
+        <v>26.49309852438</v>
       </c>
       <c r="S25">
-        <v>0.001696621371212097</v>
+        <v>0.0005960329831680395</v>
       </c>
       <c r="T25">
-        <v>0.001504819576701977</v>
+        <v>0.0004224872611191965</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.060907666666667</v>
+        <v>2.386211</v>
       </c>
       <c r="H26">
-        <v>3.182723</v>
+        <v>7.158633</v>
       </c>
       <c r="I26">
-        <v>0.002344696350432209</v>
+        <v>0.005073351852803602</v>
       </c>
       <c r="J26">
-        <v>0.002367035448005448</v>
+        <v>0.005182987702727284</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.300308</v>
+        <v>7.542782333333332</v>
       </c>
       <c r="N26">
-        <v>6.900924</v>
+        <v>22.628347</v>
       </c>
       <c r="O26">
-        <v>0.06642196561729809</v>
+        <v>0.4788882978006332</v>
       </c>
       <c r="P26">
-        <v>0.0875355222960035</v>
+        <v>0.4984064036619842</v>
       </c>
       <c r="Q26">
-        <v>2.440414392894667</v>
+        <v>17.99867017440566</v>
       </c>
       <c r="R26">
-        <v>21.963729536052</v>
+        <v>161.988031569651</v>
       </c>
       <c r="S26">
-        <v>0.0001557393403714125</v>
+        <v>0.002429568832932806</v>
       </c>
       <c r="T26">
-        <v>0.0002071996842343115</v>
+        <v>0.002583234261140595</v>
       </c>
     </row>
   </sheetData>
